--- a/simd.xlsx
+++ b/simd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="24240" windowHeight="12855" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="24240" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="SIMD x86" sheetId="1" r:id="rId1"/>
@@ -1133,79 +1133,79 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1522,9 +1522,9 @@
   </sheetPr>
   <dimension ref="A1:BU46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J8" sqref="J8"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15"/>
@@ -9879,7 +9879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
@@ -10143,16 +10143,16 @@
       <c r="A9" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="130" t="s">
+      <c r="D9" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="132" t="s">
+      <c r="E9" s="115" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="73" t="s">
@@ -10249,25 +10249,25 @@
       <c r="A11" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="110" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="129" t="s">
+      <c r="D11" s="112" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="131" t="s">
+      <c r="F11" s="114" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="116" t="s">
         <v>43</v>
       </c>
       <c r="I11" s="78" t="s">
@@ -10299,38 +10299,38 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="118" t="s">
+      <c r="C12" s="118"/>
+      <c r="D12" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="109"/>
-      <c r="F12" s="118" t="s">
+      <c r="E12" s="118"/>
+      <c r="F12" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="109"/>
-      <c r="H12" s="118" t="s">
+      <c r="G12" s="118"/>
+      <c r="H12" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="125"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="109"/>
-      <c r="L12" s="118" t="s">
+      <c r="K12" s="118"/>
+      <c r="L12" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="109"/>
-      <c r="N12" s="118" t="s">
+      <c r="M12" s="118"/>
+      <c r="N12" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="109"/>
-      <c r="P12" s="118" t="s">
+      <c r="O12" s="118"/>
+      <c r="P12" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="Q12" s="109"/>
+      <c r="Q12" s="118"/>
     </row>
     <row r="13" spans="1:18">
       <c r="C13" s="56"/>
@@ -10358,41 +10358,41 @@
       <c r="B15" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="111"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="111"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="111"/>
+      <c r="G15" s="120"/>
       <c r="H15" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="124"/>
+      <c r="I15" s="121"/>
       <c r="K15" s="56"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="122" t="s">
+      <c r="C16" s="125"/>
+      <c r="D16" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="113"/>
-      <c r="F16" s="122" t="s">
+      <c r="E16" s="125"/>
+      <c r="F16" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="113"/>
-      <c r="H16" s="122" t="s">
+      <c r="G16" s="125"/>
+      <c r="H16" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="113"/>
+      <c r="I16" s="125"/>
       <c r="K16" s="56"/>
     </row>
     <row r="17" spans="1:11">
@@ -10402,19 +10402,19 @@
       <c r="B17" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="118" t="s">
+      <c r="C17" s="118"/>
+      <c r="D17" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="109"/>
-      <c r="F17" s="118" t="s">
+      <c r="E17" s="118"/>
+      <c r="F17" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="109"/>
-      <c r="H17" s="118" t="s">
+      <c r="G17" s="118"/>
+      <c r="H17" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="109"/>
+      <c r="I17" s="118"/>
       <c r="K17" s="56"/>
     </row>
     <row r="18" spans="1:11">
@@ -10427,66 +10427,66 @@
       <c r="A20" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="111"/>
+      <c r="C20" s="120"/>
       <c r="D20" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="111"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="111"/>
+      <c r="G20" s="120"/>
       <c r="H20" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="111"/>
+      <c r="I20" s="120"/>
       <c r="K20" s="56"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="122" t="s">
+      <c r="C21" s="125"/>
+      <c r="D21" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="113"/>
-      <c r="F21" s="122" t="s">
+      <c r="E21" s="125"/>
+      <c r="F21" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="113"/>
-      <c r="H21" s="122" t="s">
+      <c r="G21" s="125"/>
+      <c r="H21" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="113"/>
+      <c r="I21" s="125"/>
       <c r="K21" s="56"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="118" t="s">
+      <c r="C22" s="118"/>
+      <c r="D22" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="109"/>
-      <c r="F22" s="118" t="s">
+      <c r="E22" s="118"/>
+      <c r="F22" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="109"/>
-      <c r="H22" s="118" t="s">
+      <c r="G22" s="118"/>
+      <c r="H22" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="109"/>
+      <c r="I22" s="118"/>
       <c r="K22" s="56"/>
     </row>
     <row r="23" spans="1:11">
@@ -10502,208 +10502,184 @@
       <c r="B25" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="111"/>
+      <c r="C25" s="120"/>
       <c r="D25" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="111"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="111"/>
+      <c r="G25" s="120"/>
       <c r="H25" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="I25" s="111"/>
+      <c r="I25" s="120"/>
       <c r="K25" s="56"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="116"/>
-      <c r="D26" s="117" t="s">
+      <c r="C26" s="129"/>
+      <c r="D26" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="116"/>
-      <c r="F26" s="117" t="s">
+      <c r="E26" s="129"/>
+      <c r="F26" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="116"/>
-      <c r="H26" s="117" t="s">
+      <c r="G26" s="129"/>
+      <c r="H26" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="116"/>
+      <c r="I26" s="129"/>
       <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="109" t="s">
+      <c r="B27" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110" t="s">
+      <c r="C27" s="131"/>
+      <c r="D27" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110" t="s">
+      <c r="E27" s="131"/>
+      <c r="F27" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110" t="s">
+      <c r="G27" s="131"/>
+      <c r="H27" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="110"/>
+      <c r="I27" s="131"/>
       <c r="K27" s="56"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112" t="s">
+      <c r="C30" s="132"/>
+      <c r="D30" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112" t="s">
+      <c r="E30" s="132"/>
+      <c r="F30" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112" t="s">
+      <c r="G30" s="132"/>
+      <c r="H30" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="112"/>
+      <c r="I30" s="132"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110" t="s">
+      <c r="C31" s="131"/>
+      <c r="D31" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110" t="s">
+      <c r="E31" s="131"/>
+      <c r="F31" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110" t="s">
+      <c r="G31" s="131"/>
+      <c r="H31" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="I31" s="110"/>
+      <c r="I31" s="131"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112" t="s">
+      <c r="C34" s="132"/>
+      <c r="D34" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112" t="s">
+      <c r="E34" s="132"/>
+      <c r="F34" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112" t="s">
+      <c r="G34" s="132"/>
+      <c r="H34" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="I34" s="112"/>
+      <c r="I34" s="132"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="113" t="s">
+      <c r="B35" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114" t="s">
+      <c r="C35" s="133"/>
+      <c r="D35" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114" t="s">
+      <c r="E35" s="133"/>
+      <c r="F35" s="133" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114" t="s">
+      <c r="G35" s="133"/>
+      <c r="H35" s="133" t="s">
         <v>94</v>
       </c>
-      <c r="I35" s="114"/>
+      <c r="I35" s="133"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="109" t="s">
+      <c r="B36" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110" t="s">
+      <c r="C36" s="131"/>
+      <c r="D36" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110" t="s">
+      <c r="E36" s="131"/>
+      <c r="F36" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110" t="s">
+      <c r="G36" s="131"/>
+      <c r="H36" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="I36" s="110"/>
+      <c r="I36" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
@@ -10720,18 +10696,42 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="H30:I30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
